--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\4thYear\EPL449\epl343.winter18.team10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHRISIS-PC\Desktop\8th Semester\EPL449\epl343.winter18.team10\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3753FDB0-D0CE-40A0-B0E6-67E2C099153B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>User Story</t>
   </si>
@@ -140,16 +141,94 @@
     <t>Application runs and after selecting 'Invoice' in the side menu and 'Create' in the top bar menu you can select the Customer, adjust his info, select Products, adjust their prices/quantity and by pressing Complete send the information to the Database.</t>
   </si>
   <si>
-    <t>No validations in Quantity and Price for negative values</t>
-  </si>
-  <si>
     <t>Awaiting Fix</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Invoice' in the side menu and 'Edit' in the top bar menu and then insert the Invoice ID in the corresponding text box, all the invoice's details including customer information and products are displayed in their corresponding elements and then you can edit the products information.</t>
+  </si>
+  <si>
+    <t>No check in Quantity and Price for negative values
+Duplicate products should not be allowed</t>
+  </si>
+  <si>
+    <t>No check in Quantity and Price for negative values
+Duplicate products should not be allowed
+When an invoice is already loaded, pressing load again will not clear previous invoice</t>
+  </si>
+  <si>
+    <t>Awaiting Fix
+(Fixed loading new invocie)</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Invoice' in the side menu and 'View' in the top bar menu and then insert the Invoice ID in the corresponding text box, all the invoice's details are loaded and when you press print then  Adobe Acrobat Reader runs with the print dialog window open</t>
+  </si>
+  <si>
+    <t>No check if an invoice is loaded or not.</t>
+  </si>
+  <si>
+    <t>No check if an invoice is loaded or not.
+The temp pdf is not removed afterwards</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Invoice' in the side menu and 'View' in the top bar menu and then insert the Invoice ID in the corresponding text box, all the invoice's details are loaded and when you press save then the invoice is saved in the predetermined location.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Invoice' in the side menu and 'View' in the top bar menu and then insert the Invoice ID in the corresponding text box, all the invoice's details are loaded and when you press preview then Adobe Acrobat Reader and displays the pdf to be created.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Customers' in the side menu and 'View' in the top bar menu you can see all the customers from the Database, in a grid. You can also filter results by Balance, Customer name and City.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Customers' in the side menu and 'Create' in the top bar menu you can add all the information you need to create a new customer and then press Create to complete.</t>
+  </si>
+  <si>
+    <t>No email and phone number validations</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Customers' in the side menu and 'Edit' in the top bar menu and load the customer you want you can  edit all his information then press Update to complete.</t>
+  </si>
+  <si>
+    <t>Cannot remove customers that are referenced in the Database as that violated the foreign keys constraints</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Customers' in the side menu and View in the top bar menu you can see all the customers from the Database, in a grid and by selecting Delete from the options on the right the customer is removed.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Product' in the side menu and Create in the top bar menu you can add all the information of a product in the textboxes and then complete with the Create button.</t>
+  </si>
+  <si>
+    <t>No check in most text boxes for negative values
+(price, cost, stock)</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Product' in the side menu and 'View' in the top bar menu you can see all the products from the Database, in a grid. You can also filter results by Category, Product name and Status.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Product' in the side menu and 'Edit' in the top bar menu and load the product you want you can  edit all its information then press Update to complete.</t>
+  </si>
+  <si>
+    <t>No check in most text boxes for negative values
+(price, cost, stock)
+No validation for VAT</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Settings' in the side menu you can load all the users/ remove users and add new users</t>
+  </si>
+  <si>
+    <t>As expected
+(but its ugly)</t>
+  </si>
+  <si>
+    <t>Awaiting Beautyfication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,14 +370,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,9 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -338,17 +411,26 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -633,20 +715,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="46" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" style="9" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -655,375 +737,505 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>43896</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="14">
+      <c r="A4" s="17"/>
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>43896</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="15" t="s">
+      <c r="H4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14">
+      <c r="A5" s="17"/>
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>43896</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14">
+      <c r="A6" s="17"/>
+      <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="14">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="10">
+        <v>43897</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="12">
-        <v>43897</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="19" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14">
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="10">
+        <v>43898</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14">
+      <c r="D8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="10">
+        <v>43898</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14">
+      <c r="D9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="10">
+        <v>43898</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="12">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14">
+      <c r="D10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="10">
+        <v>43898</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="14">
         <v>1</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14">
+      <c r="E11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="10">
+        <v>43898</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="12">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="14">
         <v>1</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="14">
+      <c r="E12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="10">
+        <v>43898</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="12">
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="14">
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="10">
+        <v>43898</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="12">
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="14">
+      <c r="E14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="10">
+        <v>43898</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="12">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="14">
         <v>1</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14">
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="10">
+        <v>43898</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="12">
         <v>14</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="14">
+      <c r="E16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="10">
+        <v>43898</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="12">
         <v>15</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="14">
+      <c r="E17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="10">
+        <v>43898</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="12">
         <v>16</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="E18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="10">
+        <v>43898</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="14">
+      <c r="A19" s="17"/>
+      <c r="B19" s="12">
         <v>17</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="14">
         <v>1</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="E19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="10">
+        <v>43898</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHRISIS-PC\Desktop\8th Semester\EPL449\epl343.winter18.team10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3753FDB0-D0CE-40A0-B0E6-67E2C099153B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65079F9-D473-475D-BFBF-2F527906E49D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="170">
   <si>
     <t>User Story</t>
   </si>
@@ -156,10 +156,6 @@
 When an invoice is already loaded, pressing load again will not clear previous invoice</t>
   </si>
   <si>
-    <t>Awaiting Fix
-(Fixed loading new invocie)</t>
-  </si>
-  <si>
     <t>1, 3</t>
   </si>
   <si>
@@ -222,14 +218,338 @@
 (but its ugly)</t>
   </si>
   <si>
-    <t>Awaiting Beautyfication</t>
+    <t>As a user, I want to be able to view the receipts</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to create receipts</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to edit a receipt</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to delete a receipt</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to view all orders</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to mark an order as ready/not ready</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to issue an order as invoice</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to create orders</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to edit an order</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to delete an order</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to view an offer</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to create an offer</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to edit an offer</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to delete an offer</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to view all expenses</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to view an expense</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to view the credit notes</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to delete a credit note</t>
+  </si>
+  <si>
+    <t>1, 19</t>
+  </si>
+  <si>
+    <t>1, 18, 20</t>
+  </si>
+  <si>
+    <t>1, 22</t>
+  </si>
+  <si>
+    <t>1, 22, 23</t>
+  </si>
+  <si>
+    <t>1, 25</t>
+  </si>
+  <si>
+    <t>1, 22, 26</t>
+  </si>
+  <si>
+    <t>1, 29</t>
+  </si>
+  <si>
+    <t>1, 28, 30</t>
+  </si>
+  <si>
+    <t>1, 32</t>
+  </si>
+  <si>
+    <t>1, 34</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Receipt' in the side menu and 'View All' in the top bar menu you can see all the receipts from the Database, in a grid. You can also filter results by Date and Customer name.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Receipt' in the side menu and 'Create' in the top bar menu you can select the Customer, add payments and by pressing Complete send the information to the Database.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Receipt' in the side menu and 'Edit' in the top bar menu and then insert the Receipt ID in the corresponding text box, all the receipt's details including customer information and payments are displayed in their corresponding elements and then you can edit the payments information.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Order' in the side menu and 'View All' in the top bar menu you can see all the orders from the Database, in a grid. You can also filter results by Date, Customer name, status and city.</t>
+  </si>
+  <si>
+    <t>No check for leaving payments empty</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Order' in the side menu and View All in the top bar menu you can see all the orders from the Database, in a grid and by selecting Mark as Ready/Not ready from the options on the right the order is updated.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Order' in the side menu and View All in the top bar menu you can see all the orders from the Database, in a grid and by selecting Issue as invoice from the options on the right the order is loaded in Create Invoice to be completed.</t>
+  </si>
+  <si>
+    <t>Works but does not update order status as completed</t>
+  </si>
+  <si>
+    <t>Fixed, Order status is now properly updated</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Order' in the side menu and 'Create' in the top bar menu you can select the Customer, select Products, adjust their prices/quantity and by pressing Complete send the information to the Database.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Order' in the side menu and 'Edit' in the top bar menu and then insert the Order ID in the corresponding text box, all the order's details including customer information and products are displayed in their corresponding elements and then you can edit the products information.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Order' in the side menu and View All in the top bar menu you can see all the orders from the Database, in a grid and by selecting Delete from the options on the right the order is removed.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Offer' in the side menu and View All in the top bar menu you can see all the offers from the Database, in a grid. You can also filter results by Date, Customer name, status and city.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Offer' in the side menu and 'Create' in the top bar menu you can select the Customer, select Products, adjust their offer price and by pressing Complete send the information to the Database.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Offer' in the side menu and 'Edit' in the top bar menu and then insert the Offer ID in the corresponding text box, all the offer's details including customer information and products are displayed in their corresponding elements and then you can edit the products information.</t>
+  </si>
+  <si>
+    <t>Cant edit from view all, also no confirmation on success of edit</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Offer' in the side menu and View All in the top bar menu you can see all the offers from the Database, in a grid and by selecting Delete from the options on the right the offer is removed.</t>
+  </si>
+  <si>
+    <t>No check for offer price to being larger than actual price also no confirmation on success of create</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Expenses' in the side menu and 'View All' in the top bar menu you can see all the expenses from the Database, in a grid. You can also filter results by Date, Company  status and category.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Expenses' in the side menu and View  in the top bar menu and then insert the Expense ID in the corresponding text box, all the expense's details including are displayed in their corresponding elements</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Credit Note' in the side menu and View All in the top bar menu you can see all the credit notes from the Database, in a grid. You can also filter results by Date and Customer name.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting ''Credit Note' in the side menu and View All in the top bar menu you can see all the credit notes from the Database, in a grid and by selecting Delete from the options on the right the credit note is removed.</t>
+  </si>
+  <si>
+    <t>Fixed, doesn’t update with no payments and also alerts the user</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to create credit notes</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to edit a credit note</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to add an expense</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to edit an expense</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to export all data as CSV</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to export/backup the database</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to delete an expense</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to preview the credit note before printing/exporting</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to export a credit note to pdf</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to print credit notes</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to preview the offer before printing/exporting</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to export an offer as pdf</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to print an offer</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to preview the order before printing/exporting</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to export an order as pdf</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to print an order</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to export receipts as pdf</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to preview the receipt before printing/exporting</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to print receipts</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to create a statement for a customer</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to preview the statement before printing/exporting</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to export a statement as pdf</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to print a statement</t>
+  </si>
+  <si>
+    <t>1, 36</t>
+  </si>
+  <si>
+    <t>1, 38</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Credit Note' in the side menu and 'View' in the top bar menu and then insert the credit note ID in the corresponding text box, all the it's details are loaded and when you press preview then Adobe Acrobat Reader runs and displays the pdf to be created.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Credit Note' in the side menu and 'View' in the top bar menu and then insert the credit note ID in the corresponding text box, all the it's details are loaded and when you press save then the it is saved in the predetermined location.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Credit Note' in the side menu and 'View' in the top bar menu and then insert the credit note ID in the corresponding text box, all the it's details are loaded and when you press print then Adobe Acrobat Reader runs with the print dialog window open</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Offer' in the side menu and 'View' in the top bar menu and then insert the offer ID in the corresponding text box, all the it's details are loaded and when you press preview then Adobe Acrobat Reader runs and displays the pdf to be created.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Offer' in the side menu and 'View' in the top bar menu and then insert the offer ID in the corresponding text box, all the it's details are loaded and when you press save then the it is saved in the predetermined location.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Offer' in the side menu and 'View' in the top bar menu and then insert the offer ID in the corresponding text box, all the it's details are loaded and when you press print then Adobe Acrobat Reader runs with the print dialog window open</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Order' in the side menu and 'View' in the top bar menu and then insert the order ID in the corresponding text box, all the it's details are loaded and when you press preview then Adobe Acrobat Reader runs and displays the pdf to be created.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Order' in the side menu and 'View' in the top bar menu and then insert the order ID in the corresponding text box, all the it's details are loaded and when you press save then the it is saved in the predetermined location.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Order' in the side menu and 'View' in the top bar menu and then insert the order ID in the corresponding text box, all the it's details are loaded and when you press print then Adobe Acrobat Reader runs with the print dialog window open</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Receipt' in the side menu and 'View' in the top bar menu and then insert the receipt ID in the corresponding text box, all the it's details are loaded and when you press preview then Adobe Acrobat Reader runs and displays the pdf to be created.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Receipt' in the side menu and 'View' in the top bar menu and then insert the receipt ID in the corresponding text box, all the it's details are loaded and when you press save then the it is saved in the predetermined location.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Receipt' in the side menu and 'View' in the top bar menu and then insert the receipt ID in the corresponding text box, all the it's details are loaded and when you press print then Adobe Acrobat Reader runs with the print dialog window open</t>
+  </si>
+  <si>
+    <t>1, 55</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Statement' in the side menu and 'Create' in the top bar menu and after you create a statement you press preview then Adobe Acrobat Reader runs and displays the pdf to be created.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Statement' in the side menu and 'Create' in the top bar menu and after you create a statement you press save then the it is saved in the predetermined location.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Statement' in the side menu and 'Create' in the top bar menu and after you create a statement you press print then Adobe Acrobat Reader runs with the print dialog window open</t>
+  </si>
+  <si>
+    <t>1, 28</t>
+  </si>
+  <si>
+    <t>1, 18</t>
+  </si>
+  <si>
+    <t>1, 2, 18, 34</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Statement' in the side menu and 'Create' in the top bar menu you can select the customer and the date range to retrieve all invoices, credit notes and receipts matching the dates.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Credit Note' in the side menu and 'Create' in the top bar menu you can select the Customer, select Products, adjust their prices/quantity and by pressing Complete send the information to the Database.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Credit Note' in the side menu and 'Edit' in the top bar menu and then insert the credit note ID in the corresponding text box, all the it's details including customer information and products are displayed in their corresponding elements and then you can edit the products information.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Expenses' in the side menu and 'Create' in the top bar menu you can select the Customer, select Products, adjust their prices/quantity and by pressing Complete send the information to the Database.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Expenses' in the side menu and 'Edit' in the top bar menu and then insert the expense ID in the corresponding text box, all the it's details displayed in their corresponding elements and then you can edit.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Expenses' in the side menu and View All in the top bar menu you can see all the expenses from the Database, in a grid and by selecting Delete from the options on the right the expense is removed.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Receipt' in the side menu and View All in the top bar menu you can see all the receipts from the Database, in a grid and by selecting Delete from the options on the right the receipt is removed.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Settings' in the side menu and then Database in the top bar menu you can select path to export the DB as CSV file.</t>
+  </si>
+  <si>
+    <t>Application runs and after selecting 'Settings' in the side menu and then Database in the top bar menu you can select path to export the DB as SQL script.</t>
+  </si>
+  <si>
+    <t>Not properly clearing all fields when completing a credit note</t>
+  </si>
+  <si>
+    <t>Not properly clearing all fields when edititng a credit note</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Decimals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +630,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -370,7 +705,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -381,20 +716,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -420,9 +746,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -431,6 +754,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -716,20 +1048,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I20"/>
+  <dimension ref="A2:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -766,481 +1098,1643 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="F3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7">
         <v>43896</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="12">
+      <c r="A4" s="19"/>
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="F4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7">
         <v>43896</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="12">
+      <c r="A5" s="19"/>
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7">
         <v>43896</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="12">
+      <c r="A6" s="19"/>
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <v>43897</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7">
+        <v>43898</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7">
+        <v>43898</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7">
+        <v>43898</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7">
+        <v>43898</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7">
+        <v>43898</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="7">
+        <v>43898</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="12">
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7">
+        <v>43898</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7">
+        <v>43898</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="7">
+        <v>43898</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7">
+        <v>43898</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="7">
+        <v>43898</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="9">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="7">
+        <v>43898</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="9">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="7">
+        <v>43898</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>2</v>
+      </c>
+      <c r="B21" s="9">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="7">
+        <v>43939</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="9">
         <v>19</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="C22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7">
+        <v>43939</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="9">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="7">
+        <v>43939</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="9">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7">
+        <v>43939</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="9">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="7">
+        <v>43939</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="9">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="7">
+        <v>43939</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="9">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="7">
+        <v>43939</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="9">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="7">
+        <v>43939</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="9">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="7">
+        <v>43939</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="9">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="7">
+        <v>43940</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="9">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="7">
+        <v>43940</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="9">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="7">
+        <v>43940</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="9">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="7">
+        <v>43940</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="9">
+        <v>31</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="7">
+        <v>43940</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="9">
         <v>32</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="C35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="7">
+        <v>43940</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="9">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="7">
+        <v>43940</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="9">
+        <v>34</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="7">
+        <v>43940</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="9">
+        <v>35</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="7">
+        <v>43940</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
+        <v>3</v>
+      </c>
+      <c r="B40" s="9">
+        <v>36</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="11">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="7">
+        <v>43953</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="9">
+        <v>37</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="7">
+        <v>43953</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="9">
+        <v>38</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="11">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="7">
+        <v>43953</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="9">
         <v>39</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="C43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" s="7">
+        <v>43953</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="9">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="7">
+        <v>43953</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="9">
         <v>41</v>
       </c>
-      <c r="G7" s="10">
-        <v>43898</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="18" t="s">
+      <c r="C45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="11">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="7">
+        <v>43953</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="9">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="C46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="11">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="7">
+        <v>43953</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="9">
         <v>43</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="C47" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="7">
+        <v>43953</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="9">
         <v>44</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="C48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="7">
+        <v>43953</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="9">
+        <v>45</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="7">
+        <v>43953</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="9">
         <v>46</v>
       </c>
-      <c r="G8" s="10">
-        <v>43898</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="C50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="9">
+        <v>47</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="9">
+        <v>48</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="9">
+        <v>49</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G53" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="12">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="10">
-        <v>43898</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="16" t="s">
+    <row r="54" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="9">
+        <v>50</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="12">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="10">
-        <v>43898</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="16" t="s">
+    <row r="55" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="9">
+        <v>51</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G55" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="12">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="10">
-        <v>43898</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="10">
-        <v>43898</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="12">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="s">
+    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="9">
         <v>52</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="10">
-        <v>43898</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="12">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="C56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="9">
+        <v>53</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="9">
         <v>54</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="10">
-        <v>43898</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="12">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="C58" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="9">
         <v>55</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="C59" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="9">
         <v>56</v>
       </c>
-      <c r="G15" s="10">
-        <v>43898</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="12">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="14">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="C60" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="9">
         <v>57</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="10">
-        <v>43898</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="12">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="C61" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="9">
         <v>58</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="10">
-        <v>43898</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="12">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="10">
-        <v>43898</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="12">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="10">
-        <v>43898</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A3:A19"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="A40:A62"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHRISIS-PC\Desktop\8th Semester\EPL449\epl343.winter18.team10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65079F9-D473-475D-BFBF-2F527906E49D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15161A71-07BC-48D7-9C41-ACC075BF1763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="168">
   <si>
     <t>User Story</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Application runs and after selecting 'Invoice' in the side menu and 'Create' in the top bar menu you can select the Customer, adjust his info, select Products, adjust their prices/quantity and by pressing Complete send the information to the Database.</t>
-  </si>
-  <si>
-    <t>Awaiting Fix</t>
   </si>
   <si>
     <t>Application runs and after selecting 'Invoice' in the side menu and 'Edit' in the top bar menu and then insert the Invoice ID in the corresponding text box, all the invoice's details including customer information and products are displayed in their corresponding elements and then you can edit the products information.</t>
@@ -179,9 +176,6 @@
   </si>
   <si>
     <t>Application runs and after selecting 'Customers' in the side menu and 'Create' in the top bar menu you can add all the information you need to create a new customer and then press Create to complete.</t>
-  </si>
-  <si>
-    <t>No email and phone number validations</t>
   </si>
   <si>
     <t>Application runs and after selecting 'Customers' in the side menu and 'Edit' in the top bar menu and load the customer you want you can  edit all his information then press Update to complete.</t>
@@ -705,7 +699,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -742,9 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1050,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1089,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
       <c r="B3" s="9">
@@ -1127,7 +1118,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -1154,7 +1145,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="9">
         <v>3</v>
       </c>
@@ -1181,7 +1172,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9">
         <v>4</v>
       </c>
@@ -1195,7 +1186,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="7">
         <v>43897</v>
@@ -1204,11 +1195,11 @@
         <v>26</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="9">
         <v>5</v>
       </c>
@@ -1219,10 +1210,10 @@
         <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7">
         <v>43898</v>
@@ -1231,11 +1222,11 @@
         <v>26</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -1243,13 +1234,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>45</v>
+      <c r="F8" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="G8" s="7">
         <v>43898</v>
@@ -1258,11 +1249,11 @@
         <v>26</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -1270,13 +1261,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="G9" s="7">
         <v>43898</v>
@@ -1285,11 +1276,11 @@
         <v>26</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="9">
         <v>8</v>
       </c>
@@ -1297,13 +1288,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="G10" s="7">
         <v>43898</v>
@@ -1312,11 +1303,11 @@
         <v>26</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="9">
         <v>9</v>
       </c>
@@ -1327,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>25</v>
@@ -1343,7 +1334,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="9">
         <v>10</v>
       </c>
@@ -1354,10 +1345,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G12" s="7">
         <v>43898</v>
@@ -1365,12 +1356,12 @@
       <c r="H12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>38</v>
+      <c r="I12" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="9">
         <v>11</v>
       </c>
@@ -1381,10 +1372,10 @@
         <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G13" s="7">
         <v>43898</v>
@@ -1392,12 +1383,12 @@
       <c r="H13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>38</v>
+      <c r="I13" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="9">
         <v>12</v>
       </c>
@@ -1408,10 +1399,10 @@
         <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="G14" s="7">
         <v>43898</v>
@@ -1420,11 +1411,11 @@
         <v>26</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="9">
         <v>13</v>
       </c>
@@ -1435,10 +1426,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7">
         <v>43898</v>
@@ -1447,11 +1438,11 @@
         <v>26</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="9">
         <v>14</v>
       </c>
@@ -1462,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>25</v>
@@ -1478,7 +1469,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="9">
         <v>15</v>
       </c>
@@ -1489,10 +1480,10 @@
         <v>35</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7">
         <v>43898</v>
@@ -1501,11 +1492,11 @@
         <v>26</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="9">
         <v>16</v>
       </c>
@@ -1516,10 +1507,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" s="7">
         <v>43898</v>
@@ -1528,11 +1519,11 @@
         <v>26</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="9">
         <v>17</v>
       </c>
@@ -1543,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="G19" s="7">
         <v>43898</v>
@@ -1555,7 +1546,7 @@
         <v>26</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1588,20 +1579,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>2</v>
       </c>
       <c r="B21" s="9">
         <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="11">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>25</v>
@@ -1617,18 +1608,18 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="9">
         <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="11">
         <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>25</v>
@@ -1644,21 +1635,21 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="9">
         <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="G23" s="7">
         <v>43939</v>
@@ -1666,23 +1657,23 @@
       <c r="H23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>111</v>
+      <c r="I23" s="17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="9">
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>25</v>
@@ -1698,18 +1689,18 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="9">
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D25" s="11">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>25</v>
@@ -1725,18 +1716,18 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="9">
         <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>25</v>
@@ -1752,21 +1743,21 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="9">
         <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="G27" s="7">
         <v>43939</v>
@@ -1774,23 +1765,23 @@
       <c r="H27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="18" t="s">
-        <v>97</v>
+      <c r="I27" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="9">
         <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>25</v>
@@ -1804,21 +1795,21 @@
       <c r="I28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="17"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="9">
         <v>26</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>25</v>
@@ -1834,18 +1825,18 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="9">
         <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>25</v>
@@ -1861,18 +1852,18 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="9">
         <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="11">
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>25</v>
@@ -1888,21 +1879,21 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="9">
         <v>29</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" s="11">
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="G32" s="7">
         <v>43940</v>
@@ -1911,25 +1902,25 @@
         <v>26</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="9">
         <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="G33" s="7">
         <v>43940</v>
@@ -1938,22 +1929,22 @@
         <v>26</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="9">
         <v>31</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>25</v>
@@ -1969,18 +1960,18 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="9">
         <v>32</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" s="11">
         <v>1</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>25</v>
@@ -1996,18 +1987,18 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="9">
         <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>25</v>
@@ -2023,18 +2014,18 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="9">
         <v>34</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>25</v>
@@ -2050,18 +2041,18 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="9">
         <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>25</v>
@@ -2106,23 +2097,23 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+      <c r="A40" s="18">
         <v>3</v>
       </c>
       <c r="B40" s="9">
         <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40" s="11">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>166</v>
+        <v>156</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="G40" s="7">
         <v>43953</v>
@@ -2131,25 +2122,25 @@
         <v>26</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="9">
         <v>37</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="G41" s="7">
         <v>43953</v>
@@ -2158,25 +2149,25 @@
         <v>26</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="9">
         <v>38</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>168</v>
+        <v>158</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="G42" s="7">
         <v>43953</v>
@@ -2184,26 +2175,26 @@
       <c r="H42" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>38</v>
+      <c r="I42" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="9">
         <v>39</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>168</v>
+        <v>159</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="G43" s="7">
         <v>43953</v>
@@ -2211,23 +2202,23 @@
       <c r="H43" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>38</v>
+      <c r="I43" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="9">
         <v>40</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>25</v>
@@ -2243,18 +2234,18 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="9">
         <v>41</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D45" s="11">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>25</v>
@@ -2270,18 +2261,18 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="9">
         <v>42</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D46" s="11">
         <v>1</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>25</v>
@@ -2297,18 +2288,18 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="9">
         <v>43</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>25</v>
@@ -2324,18 +2315,18 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="9">
         <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>25</v>
@@ -2351,18 +2342,18 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="9">
         <v>45</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>25</v>
@@ -2378,18 +2369,18 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="9">
         <v>46</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>25</v>
@@ -2405,18 +2396,18 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="9">
         <v>47</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>25</v>
@@ -2432,18 +2423,18 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="9">
         <v>48</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>25</v>
@@ -2459,21 +2450,21 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="9">
         <v>49</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>169</v>
+        <v>142</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="G53" s="7">
         <v>43954</v>
@@ -2481,26 +2472,26 @@
       <c r="H53" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I53" s="13" t="s">
-        <v>38</v>
+      <c r="I53" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="9">
         <v>50</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>169</v>
+        <v>143</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="G54" s="7">
         <v>43954</v>
@@ -2508,26 +2499,26 @@
       <c r="H54" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I54" s="13" t="s">
-        <v>38</v>
+      <c r="I54" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="9">
         <v>51</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>169</v>
+        <v>144</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="G55" s="7">
         <v>43954</v>
@@ -2535,23 +2526,23 @@
       <c r="H55" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I55" s="13" t="s">
-        <v>38</v>
+      <c r="I55" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="9">
         <v>52</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>25</v>
@@ -2567,18 +2558,18 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="9">
         <v>53</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>25</v>
@@ -2594,18 +2585,18 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="9">
         <v>54</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>25</v>
@@ -2621,18 +2612,18 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="9">
         <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>25</v>
@@ -2648,18 +2639,18 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="9">
         <v>56</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>25</v>
@@ -2675,18 +2666,18 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="9">
         <v>57</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D61" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>25</v>
@@ -2702,18 +2693,18 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="9">
         <v>58</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>25</v>
